--- a/_Ashutosh/Docs/Training Modules for KYOCERA_DotNet_Advance_SOLID_DP_Microservices_V3.xlsx
+++ b/_Ashutosh/Docs/Training Modules for KYOCERA_DotNet_Advance_SOLID_DP_Microservices_V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Ashutosh\Trainings\AdvanceNetConcepts\_Ashutosh\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2564115A-8C72-4A5F-82F8-E9AE66AD2C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194CA344-F4AA-42CD-B2A4-50FFE09F4931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="4" xr2:uid="{5A4A71F7-95FA-47BC-BB14-8430CD511A9E}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="144">
   <si>
     <t>MicroService vs Monotlythic</t>
   </si>
@@ -1317,15 +1317,6 @@
     <t>4 to 5:30PM</t>
   </si>
   <si>
-    <t>6:30AM</t>
-  </si>
-  <si>
-    <t>9AM</t>
-  </si>
-  <si>
-    <t>6PM</t>
-  </si>
-  <si>
     <t>Mircoservices Benefits</t>
   </si>
   <si>
@@ -1385,6 +1376,36 @@
   </si>
   <si>
     <t>Authentication - Identity server [ Azure AAD]</t>
+  </si>
+  <si>
+    <t>6PM - 8PM</t>
+  </si>
+  <si>
+    <t>close at 9PM</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>9AM - 11AM</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>Close by 12</t>
+  </si>
+  <si>
+    <t>15 mins break</t>
+  </si>
+  <si>
+    <t>6:30AM - 8:30 AM</t>
+  </si>
+  <si>
+    <t>15mins</t>
+  </si>
+  <si>
+    <t>Close by 9:30</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1834,6 +1855,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2740,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2749,31 +2771,31 @@
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="28" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2782,7 +2804,7 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2791,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2803,32 +2825,32 @@
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -2865,7 +2887,7 @@
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2883,7 +2905,7 @@
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="28" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2895,13 +2917,13 @@
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="32" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -2925,13 +2947,13 @@
   <dimension ref="B4:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2975,29 +2997,56 @@
       <c r="B9" t="s">
         <v>107</v>
       </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>108</v>
       </c>
+      <c r="C11" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
